--- a/金融资料/九斗数据/08/2018春训营-第八期-医药（5.18）.xlsx
+++ b/金融资料/九斗数据/08/2018春训营-第八期-医药（5.18）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="题目" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <r>
       <rPr>
@@ -55,31 +55,288 @@
     <t>2、横向比较美国、中国和日本，简析医药行业的发展潜力。提示：从人口年龄结构，医药支出占比，医保政策，医疗监管等维度定量分析</t>
   </si>
   <si>
+    <t>GDP比重</t>
+  </si>
+  <si>
+    <t>老龄化程度</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>中国类比日本，随着老龄化的程度加深，医药占比GDP达到日本8%左右，相当于2%的GDP将是非常巨大的产业</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>按照2017年中国GDP82万亿的2%计算，医药未来行业产值至少16400亿</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
     <t>3、简述医药行业的产业链，并分析各个环节中的竞争格局</t>
   </si>
   <si>
+    <t>总体来说可以分三大产业：制造业、商业流通、医疗服务。</t>
+  </si>
+  <si>
+    <t>制造业：跟化工行业类似，没有技术含量的大宗原料药加工就是化工行业，具有周期性。</t>
+  </si>
+  <si>
+    <t>例如：维生素、抗生素等等。上市公司：新和成。</t>
+  </si>
+  <si>
+    <t>生物生化部分药物有专利保护等技术壁垒，属于高利润行业。</t>
+  </si>
+  <si>
+    <t>医疗器械类似高端制造业</t>
+  </si>
+  <si>
+    <t>重要属于中国特色行业，未来随着科技进步，中国开发与世界接轨这方面不具有发展潜力。</t>
+  </si>
+  <si>
+    <t>中药里面的品牌药特别是OTC类似于保健品的奢侈品，例如：东阿阿胶、片仔癀等等。</t>
+  </si>
+  <si>
+    <t>商业流通主要是批发、零售商。例如：上海医药、国药控股、九州通等等。</t>
+  </si>
+  <si>
+    <t>医疗服务主要是医院、体检、保健。例如：爱尔眼科、通策医疗，美年健康。</t>
+  </si>
+  <si>
+    <t>总体来说利润最高、最优发展潜力的细分行业：生物生化。这块是国际药厂具有垄断优势的行业。例如：恒瑞医药、复星医药等等。</t>
+  </si>
+  <si>
     <t>4、为什么中国的医药上市公司与美国相比市值差距那么大？你认为未来5-10年内是否有望极大地缩小这一差距？</t>
   </si>
   <si>
+    <t>国内医药行业龙头：恒瑞制药（2677亿人民币）、复星医药（1108亿人民币）。</t>
+  </si>
+  <si>
+    <t>美国医药龙头：强生（3612亿美元）、辉瑞（1983亿美元）</t>
+  </si>
+  <si>
+    <t>市值相差10~20倍。</t>
+  </si>
+  <si>
+    <t>中国的市场足够辽阔，中国的医疗正在改革中。未来随着国内药企研发投入增加，差距不一定会马上缩小，但是国内医药行业的成长性的空间很大。</t>
+  </si>
+  <si>
     <t>5、医药行业研发驱动、渠道驱动和投资驱动各自的商业模式有什么区别？</t>
   </si>
   <si>
+    <t>研发驱动靠的是科技创新、专利保护，需要绝大的研发投入，国外药企100亿级别美元的投入占据明显市场支配地位。国内典型：恒瑞医药。</t>
+  </si>
+  <si>
+    <t>渠道驱动主要是靠销售驱动，这种制药公司过会存在商业贿赂风险，公司的销售人员占比高于研发占比。另外一种就是专门做医药商业的流通的公司，例如：上海医药、国药控股。</t>
+  </si>
+  <si>
+    <t>投资驱动典型就是复星医药：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  在非控股并购投资（以下称“股权投资”）方面，本集团自2009年起已经明确，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只投资于主业相关的业务领域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本集团的股权投资不单纯以获取财务收益为目标，而是以专注于医药、诊断与器 械等相关行业的产品技术和商业模式前沿，把握行业发展的方向和机会，获取领先的技术和产品为目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。随着业务规模的扩大，经营性利润和现金流日益成为本集团业绩的主要贡献，本集团经营性利润的增速明显高于投资收益的增速，投资收益对本集团的业绩贡献度呈现明显的下降趋势。单纯由股权投资及变现获得的现金，成为了本集团增强经营实力的有益补充。积极开展针对主要经营活动在中国以外的国家或地区开展或主要向处于中国以外的国家或地区对象提供服务的经营主体的并购。全资子公司复星实业、能悦有限公司是本集团海外业务的主要投资主体。 与此同时，本集团也继续努力在制药与研发领域进行海外拓展，希望能够将适合中国的高性价比的仿制药引入中国市场。本集团的利润组成主要来自经营性利润和投资收益，且经营性利润的总体占比保持较大比例， 并逐渐占据更加主导的地位；同时，作为长期战略投资的国内医药分销龙头企业国药控股，2014 年度按权益法核算的长期股权投资产生的收益占投资收益的比重为44.4%。 </t>
+    </r>
+  </si>
+  <si>
+    <t>引用：企业观察：复星医药的经营模式及核心竞争力分析 http://blog.sina.com.cn/s/blog_4ac457310102vulx.html</t>
+  </si>
+  <si>
     <t>6、简述2017年新医保目录事件，对医药行业发展的机遇与挑战，什么样的公司会受益？</t>
   </si>
   <si>
+    <t>1. 中成药比预期的调入力度要大，虽然市场上普遍担心的中药临床路径不清晰而被限制使用，但显然国家重视中医药产业发展的大逻辑大趋势没有变，一些独家、市场空间比较大的品种值得关注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2008年至2016年上半年我国批准的创新化药和生物制品中，绝大部分都被纳入了2017年版药品目录范围或谈判药品范围，国家鼓励新药自主创新的氛围日益浓厚
+</t>
+  </si>
+  <si>
+    <t>3.重点支持了儿童药，新增91个品种，但从投资的角度总体来说，儿童用药由于特殊性难以产生很大品种，国家更多的是鼓励和关怀覆盖</t>
+  </si>
+  <si>
+    <t>受益公司依次排序：1.创新化学生物制品 2.中药政策性扶持 3.儿童药</t>
+  </si>
+  <si>
+    <t>引用：2017版医保目录解析（上） https://xueqiu.com/9769652619/82814183?from=timeline</t>
+  </si>
+  <si>
     <t>7、列举哈药股份、新华医疗、迪安诊断、恒瑞医药、华海药业的商业模式变迁，用数据支撑你的理论。</t>
   </si>
   <si>
+    <t>哈药股份：大宗原料药制造细分行业，逐步过渡到医药商业维护。</t>
+  </si>
+  <si>
+    <t>新华医疗：医疗器械制造细分行业，围绕医疗器械做经营、服务等相关业务，主营业务范围无变化。</t>
+  </si>
+  <si>
+    <t>迪安诊断：医疗器械诊断服务细分行业，主营无变化。</t>
+  </si>
+  <si>
+    <t>恒瑞医药：化学药品研发、生产细分行业。由针剂药、片剂药等低端产品过渡到抗肿瘤、麻醉药等高端产品，市值也随着高速增长。</t>
+  </si>
+  <si>
+    <t>华海药业：原料药及医药中间体的制造和销售。围绕原料药中间体做相关销售、进出口业务，主营业务范围无变化。</t>
+  </si>
+  <si>
+    <t>引用：wind主营构成数据</t>
+  </si>
+  <si>
     <t>8、查找上述四家公司的高管团队履历和2017年的薪酬，说说你的发现。</t>
   </si>
   <si>
+    <t>哈药股份</t>
+  </si>
+  <si>
+    <t>薪酬（万）</t>
+  </si>
+  <si>
+    <t>华海药业</t>
+  </si>
+  <si>
+    <t>迪安诊断</t>
+  </si>
+  <si>
+    <t>薪酬</t>
+  </si>
+  <si>
+    <t>副总经理</t>
+  </si>
+  <si>
+    <t>董事长兼总裁</t>
+  </si>
+  <si>
+    <t>总经理</t>
+  </si>
+  <si>
+    <t>董事长/总经理</t>
+  </si>
+  <si>
+    <t>副董事长</t>
+  </si>
+  <si>
+    <t>27~80</t>
+  </si>
+  <si>
+    <t>副总裁</t>
+  </si>
+  <si>
+    <t>50~200</t>
+  </si>
+  <si>
+    <t>新华医疗</t>
+  </si>
+  <si>
+    <t>董事长</t>
+  </si>
+  <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
+    <t>87~151</t>
+  </si>
+  <si>
+    <t>公司成长性越好，研发投入越高的企业，高管的薪酬越高而且高管薪酬与董事长薪酬差距有效，甚至高于董事长。</t>
+  </si>
+  <si>
+    <t>这表明这种类型公司重视人才，重视干事的人。</t>
+  </si>
+  <si>
     <t>9、分析上述五家公司从2017年初到今的股价走势分化的原因。</t>
   </si>
   <si>
+    <t>慢牛形态，持续上涨。研发投入、技术含量高对于未来成长性有较高预期，估值PE可以更高。</t>
+  </si>
+  <si>
+    <t>周期性形态明显，没有过2015年高点。技术壁垒弱，成长性未来潜力低。</t>
+  </si>
+  <si>
     <t>10、对比白酒行业龙头股和医药行业龙头股今年和去年的收益率（各找三家，列出数据），说说你的发现。</t>
   </si>
   <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
+  </si>
+  <si>
+    <t>白酒行业、医药行业龙头都属于白马股，2017年已经充分上涨溢价已经较高。2018年熊市特征明显，白酒调整上涨趋缓，医疗行业属于防御性品种持续上涨。</t>
+  </si>
+  <si>
     <t>11、你认为医药股的估值是否有泡沫？用数据支撑你的理论。</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>净利润增长率</t>
+  </si>
+  <si>
+    <t>主营增长率</t>
+  </si>
+  <si>
+    <t>医疗行业三个龙头股的净利润增长率&lt;PE ,而且差距很大。</t>
+  </si>
+  <si>
+    <t>PB居然有10倍以上，ROE只有个位数。</t>
+  </si>
+  <si>
+    <t>无论从成长性，PB、PE、ROB、净利润增长率和PE的比例来看，都有泡沫。</t>
   </si>
   <si>
     <r>
@@ -160,12 +417,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,12 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
@@ -344,16 +595,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,15 +615,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="仿宋"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -383,22 +646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,23 +660,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,14 +676,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,49 +743,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,6 +771,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -547,157 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +812,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,14 +978,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -756,11 +1003,102 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,10 +1135,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -815,36 +1151,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -853,16 +1159,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,16 +1188,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,119 +1206,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
@@ -1044,37 +1361,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1141,48 +1536,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>267970</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600710</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10526395" y="660400"/>
-          <a:ext cx="3075940" cy="2208530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -1202,7 +1555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1210,7 +1563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="621030" y="2971800"/>
-          <a:ext cx="4538980" cy="2952115"/>
+          <a:ext cx="5268595" cy="2952115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1244,15 +1597,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5255895" y="2967990"/>
-          <a:ext cx="4546600" cy="2935605"/>
+          <a:off x="5985510" y="2967990"/>
+          <a:ext cx="5071110" cy="2935605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1286,14 +1639,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9802495" y="3048635"/>
+          <a:off x="11056620" y="3048635"/>
           <a:ext cx="4366260" cy="2861945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1328,7 +1681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1336,7 +1689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="605155" y="1492885"/>
-          <a:ext cx="9409430" cy="1362075"/>
+          <a:ext cx="10663555" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1370,7 +1723,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1378,7 +1731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="599440" y="6661785"/>
-          <a:ext cx="6010910" cy="3945890"/>
+          <a:ext cx="6740525" cy="3945890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,6 +1765,48 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7323455" y="6611620"/>
+          <a:ext cx="6624320" cy="4003040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>922020</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
@@ -1419,8 +1814,386 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6593840" y="6611620"/>
-          <a:ext cx="6099810" cy="4003040"/>
+          <a:off x="676275" y="14490065"/>
+          <a:ext cx="3289935" cy="2208530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1721485</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="11548745"/>
+          <a:ext cx="4140835" cy="2680335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>734060</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647065" y="17127855"/>
+          <a:ext cx="4931410" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>756285</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="17169765"/>
+          <a:ext cx="5338445" cy="2573020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144145</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683895" y="19791680"/>
+          <a:ext cx="4304665" cy="2769235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563245</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>503555</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563245" y="28184475"/>
+          <a:ext cx="5822950" cy="1765935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541655</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6424295" y="28157170"/>
+          <a:ext cx="6607175" cy="1764030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629285" y="30025340"/>
+          <a:ext cx="5675630" cy="1437005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>615315</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="31534735"/>
+          <a:ext cx="12156440" cy="2907030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74930</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6298565" y="30040580"/>
+          <a:ext cx="6660515" cy="1402080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,27 +2546,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K204"/>
+  <dimension ref="A1:L272"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B159" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B228" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5166666666667" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.0166666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.4916666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="5:5">
@@ -2360,9 +3133,13 @@
     </row>
     <row r="65" s="12" customFormat="1" ht="12" spans="1:8">
       <c r="A65" s="37"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>7</v>
+      </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="37"/>
@@ -2370,29 +3147,51 @@
     </row>
     <row r="66" s="12" customFormat="1" ht="12" spans="1:8">
       <c r="A66" s="37"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="10"/>
+      <c r="B66" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="D66" s="43">
+        <v>0.15</v>
+      </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
     </row>
     <row r="67" s="12" customFormat="1" ht="12" spans="1:8">
       <c r="A67" s="37"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="10"/>
+      <c r="B67" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="44">
+        <v>0.085</v>
+      </c>
+      <c r="D67" s="43">
+        <v>0.11</v>
+      </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
     </row>
     <row r="68" s="12" customFormat="1" ht="12" spans="1:8">
       <c r="A68" s="37"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="10"/>
+      <c r="B68" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="43">
+        <v>0.06</v>
+      </c>
+      <c r="D68" s="43">
+        <v>0.26</v>
+      </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="37"/>
@@ -2408,858 +3207,1848 @@
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-    </row>
-    <row r="72" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A72" s="40"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="10"/>
+    <row r="70" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A70" s="37"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+    </row>
+    <row r="71" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A71" s="37"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+    </row>
+    <row r="72" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A72" s="37"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-    </row>
-    <row r="73" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A73" s="40"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="10"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+    </row>
+    <row r="73" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A73" s="37"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-    </row>
-    <row r="74" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A74" s="40"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="10"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+    </row>
+    <row r="74" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A74" s="37"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-    </row>
-    <row r="75" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A75" s="40"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="10"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+    </row>
+    <row r="75" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A75" s="37"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-    </row>
-    <row r="76" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A76" s="40"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="10"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+    </row>
+    <row r="76" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A76" s="37"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-    </row>
-    <row r="77" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A77" s="40"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="10"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+    </row>
+    <row r="77" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A77" s="37"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-    </row>
-    <row r="78" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A78" s="40"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="10"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+    </row>
+    <row r="78" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A78" s="37"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-    </row>
-    <row r="79" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A79" s="40"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="10"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+    </row>
+    <row r="79" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A79" s="37"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-    </row>
-    <row r="80" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A80" s="40"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="10"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+    </row>
+    <row r="80" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A80" s="37"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-    </row>
-    <row r="81" s="13" customFormat="1" ht="12" spans="1:10">
-      <c r="A81" s="40"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="10"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+    </row>
+    <row r="81" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A81" s="37"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-    </row>
-    <row r="82" s="13" customFormat="1" ht="11.25" spans="1:10">
-      <c r="A82" s="40"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-    </row>
-    <row r="84" spans="2:4">
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+    </row>
+    <row r="82" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A82" s="37"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+    </row>
+    <row r="83" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A83" s="37"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+    </row>
+    <row r="84" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A84" s="37"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
-    </row>
-    <row r="85" spans="2:4">
+      <c r="C84" s="8"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+    </row>
+    <row r="85" s="12" customFormat="1" ht="12" spans="1:8">
+      <c r="A85" s="37"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
-    </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="8"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="35"/>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="8"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" s="8"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="35"/>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="8"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="35"/>
-    </row>
-    <row r="90" spans="2:4">
-      <c r="B90" s="8"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
-    </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="8"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
-    </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="8"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-    </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="8"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="8"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="35"/>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="8"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="35"/>
-    </row>
-    <row r="96" s="12" customFormat="1" ht="12" spans="1:9">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="2:3">
-      <c r="B98" s="8"/>
-      <c r="C98" s="32"/>
-    </row>
-    <row r="99" ht="15" customHeight="1" spans="2:3">
-      <c r="B99" s="8"/>
-      <c r="C99" s="32"/>
-    </row>
-    <row r="100" ht="15" customHeight="1" spans="2:3">
-      <c r="B100" s="8"/>
-      <c r="C100" s="32"/>
-    </row>
-    <row r="101" ht="15" customHeight="1" spans="2:3">
-      <c r="B101" s="8"/>
-      <c r="C101" s="32"/>
-    </row>
-    <row r="102" ht="15" customHeight="1" spans="2:3">
-      <c r="B102" s="8"/>
-      <c r="C102" s="32"/>
-    </row>
-    <row r="103" ht="15" customHeight="1" spans="2:3">
-      <c r="B103" s="8"/>
-      <c r="C103" s="32"/>
-    </row>
-    <row r="104" ht="15" customHeight="1" spans="2:3">
-      <c r="B104" s="8"/>
-      <c r="C104" s="32"/>
-    </row>
-    <row r="105" s="12" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="23"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-    </row>
-    <row r="107" spans="2:7">
+      <c r="C85" s="8"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+    </row>
+    <row r="88" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A88" s="45"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+    </row>
+    <row r="89" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A89" s="45"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+    </row>
+    <row r="90" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A90" s="45"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+    </row>
+    <row r="91" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A91" s="45"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+    </row>
+    <row r="92" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A92" s="45"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+    </row>
+    <row r="93" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A93" s="45"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+    </row>
+    <row r="94" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A94" s="45"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="45"/>
+    </row>
+    <row r="95" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A95" s="45"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+    </row>
+    <row r="96" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+    </row>
+    <row r="97" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A97" s="45"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+    </row>
+    <row r="98" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A98" s="45"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="45"/>
+    </row>
+    <row r="99" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A99" s="45"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+    </row>
+    <row r="100" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A100" s="45"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="45"/>
+    </row>
+    <row r="101" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A101" s="45"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+    </row>
+    <row r="102" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A102" s="45"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+    </row>
+    <row r="103" s="13" customFormat="1" ht="12" spans="1:10">
+      <c r="A103" s="45"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="23"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="39"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="8"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="8"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="35"/>
+    </row>
+    <row r="107" spans="2:4">
       <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="48"/>
-    </row>
-    <row r="108" spans="2:7">
+      <c r="C107" s="34"/>
+      <c r="D107" s="35"/>
+    </row>
+    <row r="108" spans="2:4">
       <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="48"/>
-    </row>
-    <row r="109" spans="2:7">
+      <c r="C108" s="34"/>
+      <c r="D108" s="35"/>
+    </row>
+    <row r="109" spans="2:4">
       <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="48"/>
-    </row>
-    <row r="110" spans="2:7">
+      <c r="C109" s="34"/>
+      <c r="D109" s="35"/>
+    </row>
+    <row r="110" spans="2:4">
       <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="48"/>
-    </row>
-    <row r="111" spans="2:7">
+      <c r="C110" s="34"/>
+      <c r="D110" s="35"/>
+    </row>
+    <row r="111" spans="2:4">
       <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="48"/>
-    </row>
-    <row r="112" spans="2:7">
+      <c r="C111" s="34"/>
+      <c r="D111" s="35"/>
+    </row>
+    <row r="112" spans="2:4">
       <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="48"/>
-    </row>
-    <row r="113" spans="2:7">
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
+    </row>
+    <row r="113" spans="2:4">
       <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="48"/>
-    </row>
-    <row r="114" spans="2:7">
+      <c r="C113" s="34"/>
+      <c r="D113" s="35"/>
+    </row>
+    <row r="114" spans="2:4">
       <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="48"/>
-    </row>
-    <row r="115" spans="2:7">
+      <c r="C114" s="34"/>
+      <c r="D114" s="35"/>
+    </row>
+    <row r="115" spans="2:4">
       <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="48"/>
-    </row>
-    <row r="116" spans="2:7">
+      <c r="C115" s="34"/>
+      <c r="D115" s="35"/>
+    </row>
+    <row r="116" spans="2:4">
       <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="48"/>
-    </row>
-    <row r="117" spans="2:7">
+      <c r="C116" s="34"/>
+      <c r="D116" s="35"/>
+    </row>
+    <row r="117" spans="2:4">
       <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="48"/>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="49"/>
-      <c r="H118" s="49"/>
-      <c r="I118" s="49"/>
-      <c r="J118" s="52"/>
-      <c r="K118" s="39"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="35"/>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="8"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="35"/>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="35"/>
     </row>
     <row r="121" spans="2:4">
       <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="35"/>
     </row>
     <row r="122" spans="2:4">
       <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-    </row>
-    <row r="123" spans="2:4">
+      <c r="C122" s="34"/>
+      <c r="D122" s="35"/>
+    </row>
+    <row r="123" spans="2:6">
       <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-    </row>
-    <row r="124" spans="2:4">
+      <c r="C123" s="34"/>
+      <c r="D123" s="35"/>
+      <c r="F123" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
       <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-    </row>
-    <row r="125" spans="2:4">
+      <c r="C124" s="34"/>
+      <c r="D124" s="35"/>
+      <c r="F124" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
       <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-    </row>
-    <row r="126" spans="2:4">
+      <c r="C125" s="34"/>
+      <c r="D125" s="35"/>
+      <c r="F125" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12">
       <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-    </row>
-    <row r="127" spans="2:4">
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
+      <c r="F126" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+      <c r="J126" s="48"/>
+      <c r="K126" s="48"/>
+      <c r="L126" s="48"/>
+    </row>
+    <row r="127" spans="2:12">
       <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-    </row>
-    <row r="128" s="14" customFormat="1" spans="1:9">
-      <c r="A128" s="33"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="51"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="33"/>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="23"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="39"/>
-      <c r="K129" s="39"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="35"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="48"/>
+      <c r="J127" s="48"/>
+      <c r="K127" s="48"/>
+      <c r="L127" s="48"/>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" s="8"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="35"/>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="8"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="35"/>
     </row>
     <row r="130" spans="2:4">
       <c r="B130" s="8"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="8"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="35"/>
     </row>
     <row r="131" spans="2:4">
       <c r="B131" s="8"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="8"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="35"/>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" s="8"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="8"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="35"/>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" s="8"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="8"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="8"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="8"/>
+      <c r="C134" s="34"/>
+      <c r="D134" s="35"/>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" s="8"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="8"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="35"/>
     </row>
     <row r="136" spans="2:4">
       <c r="B136" s="8"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="8"/>
-    </row>
-    <row r="137" spans="2:4">
-      <c r="B137" s="8"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="8"/>
-    </row>
-    <row r="138" spans="2:4">
-      <c r="B138" s="8"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="2:4">
-      <c r="B139" s="8"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="8"/>
-    </row>
-    <row r="140" spans="2:4">
-      <c r="B140" s="8"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="B141" s="8"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" s="8"/>
-      <c r="C142" s="48"/>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="B143" s="8"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" s="23"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44"/>
-      <c r="J145" s="39"/>
-      <c r="K145" s="39"/>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="8"/>
-      <c r="C146" s="32"/>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="8"/>
-      <c r="C147" s="32"/>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="8"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="35"/>
+    </row>
+    <row r="137" s="12" customFormat="1" ht="12" spans="1:9">
+      <c r="A137" s="37"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="37"/>
+      <c r="I137" s="37"/>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" s="23"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="39"/>
+      <c r="K138" s="39"/>
+    </row>
+    <row r="139" ht="15" customHeight="1" spans="2:3">
+      <c r="B139" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="32"/>
+    </row>
+    <row r="140" ht="15" customHeight="1" spans="2:3">
+      <c r="B140" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="32"/>
+    </row>
+    <row r="141" ht="15" customHeight="1" spans="2:3">
+      <c r="B141" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" s="32"/>
+    </row>
+    <row r="142" ht="15" customHeight="1" spans="2:11">
+      <c r="B142" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="52"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
+      <c r="I142" s="52"/>
+      <c r="J142" s="52"/>
+      <c r="K142" s="52"/>
+    </row>
+    <row r="143" ht="15" customHeight="1" spans="2:11">
+      <c r="B143" s="52"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="52"/>
+      <c r="J143" s="52"/>
+      <c r="K143" s="52"/>
+    </row>
+    <row r="144" ht="15" customHeight="1" spans="2:11">
+      <c r="B144" s="52"/>
+      <c r="C144" s="52"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52"/>
+      <c r="I144" s="52"/>
+      <c r="J144" s="52"/>
+      <c r="K144" s="52"/>
+    </row>
+    <row r="145" ht="15" customHeight="1" spans="2:11">
+      <c r="B145" s="52"/>
+      <c r="C145" s="52"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="52"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52"/>
+      <c r="I145" s="52"/>
+      <c r="J145" s="52"/>
+      <c r="K145" s="52"/>
+    </row>
+    <row r="146" ht="15" customHeight="1" spans="2:11">
+      <c r="B146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="52"/>
+      <c r="J146" s="52"/>
+      <c r="K146" s="52"/>
+    </row>
+    <row r="147" ht="24" customHeight="1" spans="2:11">
+      <c r="B147" s="52"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="52"/>
+      <c r="J147" s="52"/>
+      <c r="K147" s="52"/>
+    </row>
+    <row r="148" ht="15" customHeight="1" spans="2:3">
+      <c r="B148" s="53" t="s">
+        <v>34</v>
+      </c>
       <c r="C148" s="32"/>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" ht="15" customHeight="1" spans="2:3">
       <c r="B149" s="8"/>
       <c r="C149" s="32"/>
     </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="8"/>
-      <c r="C150" s="32"/>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="8"/>
-      <c r="C151" s="32"/>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="8"/>
-      <c r="C152" s="32"/>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="8"/>
-      <c r="C153" s="32"/>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="8"/>
-      <c r="C154" s="32"/>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="8"/>
-      <c r="C155" s="32"/>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="8"/>
-      <c r="C156" s="32"/>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="8"/>
-      <c r="C157" s="32"/>
-    </row>
-    <row r="158" spans="2:3">
+    <row r="150" spans="2:11">
+      <c r="B150" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150" s="23"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="47"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="39"/>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" s="54"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="54"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
+      <c r="K151" s="54"/>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="54"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="54"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="54"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="54"/>
+      <c r="J152" s="54"/>
+      <c r="K152" s="54"/>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="54"/>
+      <c r="C153" s="54"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="54"/>
+      <c r="G153" s="54"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="54"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="54"/>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154" s="54"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="54"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="54"/>
+      <c r="H154" s="54"/>
+      <c r="I154" s="54"/>
+      <c r="J154" s="54"/>
+      <c r="K154" s="54"/>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="54"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="54"/>
+      <c r="H155" s="54"/>
+      <c r="I155" s="54"/>
+      <c r="J155" s="54"/>
+      <c r="K155" s="54"/>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="55"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="56"/>
+      <c r="F156" s="55"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="58"/>
+      <c r="I156" s="58"/>
+      <c r="J156" s="60"/>
+      <c r="K156" s="60"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="53"/>
+    </row>
+    <row r="158" spans="2:7">
       <c r="B158" s="8"/>
-      <c r="C158" s="32"/>
-    </row>
-    <row r="160" ht="17.25" customHeight="1" spans="2:11">
-      <c r="B160" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" s="54"/>
-      <c r="D160" s="54"/>
-      <c r="E160" s="54"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="54"/>
-      <c r="H160" s="54"/>
-      <c r="I160" s="54"/>
-      <c r="J160" s="54"/>
-      <c r="K160" s="54"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="8"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="8"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="8"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="8"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="8"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="8"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="8"/>
-    </row>
-    <row r="168" spans="2:2">
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="53"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="53"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="53"/>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" s="23"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="59"/>
+      <c r="H161" s="59"/>
+      <c r="I161" s="59"/>
+      <c r="J161" s="61"/>
+      <c r="K161" s="39"/>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+    </row>
+    <row r="168" spans="2:4">
       <c r="B168" s="8"/>
-    </row>
-    <row r="169" spans="2:2">
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+    </row>
+    <row r="169" spans="2:4">
       <c r="B169" s="8"/>
-    </row>
-    <row r="170" spans="2:2">
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+    </row>
+    <row r="170" spans="2:4">
       <c r="B170" s="8"/>
-    </row>
-    <row r="171" spans="2:2">
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+    </row>
+    <row r="171" spans="2:4">
       <c r="B171" s="8"/>
-    </row>
-    <row r="172" spans="2:2">
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="2:4">
       <c r="B172" s="8"/>
-    </row>
-    <row r="173" spans="2:2">
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+    </row>
+    <row r="173" spans="2:4">
       <c r="B173" s="8"/>
-    </row>
-    <row r="174" spans="2:11">
-      <c r="B174" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="56"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="57"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="56"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="56"/>
-      <c r="J174" s="64"/>
-      <c r="K174" s="64"/>
-    </row>
-    <row r="175" spans="2:2">
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+    </row>
+    <row r="175" spans="2:4">
       <c r="B175" s="8"/>
-    </row>
-    <row r="177" spans="2:2">
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+    </row>
+    <row r="177" spans="2:4">
       <c r="B177" s="8"/>
-    </row>
-    <row r="178" spans="2:2">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+    </row>
+    <row r="178" spans="2:4">
       <c r="B178" s="8"/>
-    </row>
-    <row r="180" s="15" customFormat="1" spans="1:9">
-      <c r="A180" s="58"/>
-      <c r="B180" s="59"/>
-      <c r="C180" s="59"/>
-      <c r="D180" s="59"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="61"/>
-      <c r="G180" s="58"/>
-      <c r="H180" s="58"/>
-      <c r="I180" s="58"/>
-    </row>
-    <row r="181" s="15" customFormat="1" spans="1:9">
-      <c r="A181" s="58"/>
-      <c r="B181" s="62"/>
-      <c r="C181" s="62"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="58"/>
-      <c r="H181" s="58"/>
-      <c r="I181" s="58"/>
-    </row>
-    <row r="182" spans="2:5">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+    </row>
+    <row r="182" spans="2:4">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
-      <c r="E182" s="9"/>
-    </row>
-    <row r="183" spans="2:5">
+    </row>
+    <row r="183" spans="2:4">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="9"/>
-    </row>
-    <row r="184" spans="2:5">
+    </row>
+    <row r="184" spans="2:4">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="9"/>
-    </row>
-    <row r="185" spans="2:6">
+    </row>
+    <row r="185" spans="2:4">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="9"/>
-      <c r="F185" s="63"/>
-    </row>
-    <row r="186" spans="2:5">
+    </row>
+    <row r="186" spans="2:4">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="10"/>
-    </row>
-    <row r="187" spans="2:5">
+    </row>
+    <row r="187" spans="2:4">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="9"/>
-    </row>
-    <row r="188" spans="2:5">
+    </row>
+    <row r="188" spans="2:4">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="9"/>
-    </row>
-    <row r="189" spans="2:5">
+    </row>
+    <row r="189" spans="2:4">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" spans="2:5">
+    </row>
+    <row r="190" spans="2:4">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="9"/>
-    </row>
-    <row r="191" spans="2:5">
+    </row>
+    <row r="191" spans="2:4">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
-      <c r="E191" s="10"/>
-    </row>
-    <row r="192" spans="2:5">
+    </row>
+    <row r="192" spans="2:4">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="9"/>
-    </row>
-    <row r="193" spans="2:5">
+    </row>
+    <row r="193" spans="2:4">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="9"/>
-    </row>
-    <row r="194" spans="2:5">
+    </row>
+    <row r="194" spans="2:4">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="9"/>
-    </row>
-    <row r="195" spans="2:5">
+    </row>
+    <row r="195" spans="2:4">
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="9"/>
-    </row>
-    <row r="196" spans="2:5">
+    </row>
+    <row r="196" spans="2:4">
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="10"/>
-    </row>
-    <row r="197" spans="2:5">
+    </row>
+    <row r="197" spans="2:4">
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="65"/>
-    </row>
-    <row r="198" spans="2:5">
+    </row>
+    <row r="198" spans="2:4">
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="9"/>
-    </row>
-    <row r="199" spans="2:5">
+    </row>
+    <row r="199" spans="2:4">
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="9"/>
-    </row>
-    <row r="200" spans="2:5">
+    </row>
+    <row r="200" spans="2:4">
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
-      <c r="E200" s="9"/>
-    </row>
-    <row r="201" spans="2:5">
+    </row>
+    <row r="201" spans="2:4">
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="9"/>
-    </row>
-    <row r="202" spans="2:5">
+    </row>
+    <row r="202" spans="2:4">
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
-      <c r="E202" s="10"/>
-    </row>
-    <row r="203" spans="2:5">
+    </row>
+    <row r="203" spans="2:4">
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
-      <c r="E203" s="10"/>
-    </row>
-    <row r="204" spans="2:5">
+    </row>
+    <row r="204" spans="2:4">
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
-      <c r="E204" s="10"/>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
+    </row>
+    <row r="207" s="14" customFormat="1" spans="1:9">
+      <c r="A207" s="33"/>
+      <c r="B207" s="62"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="33"/>
+      <c r="I207" s="33"/>
+    </row>
+    <row r="208" spans="2:11">
+      <c r="B208" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208" s="23"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="47"/>
+      <c r="H208" s="47"/>
+      <c r="I208" s="47"/>
+      <c r="J208" s="39"/>
+      <c r="K208" s="39"/>
+    </row>
+    <row r="209" spans="2:11">
+      <c r="B209" s="55"/>
+      <c r="C209" s="57"/>
+      <c r="D209" s="55"/>
+      <c r="E209" s="64"/>
+      <c r="F209" s="58"/>
+      <c r="G209" s="58"/>
+      <c r="H209" s="58"/>
+      <c r="I209" s="58"/>
+      <c r="J209" s="89"/>
+      <c r="K209" s="89"/>
+    </row>
+    <row r="210" spans="2:11">
+      <c r="B210" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C210" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D210" s="55"/>
+      <c r="E210" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F210" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G210" s="58"/>
+      <c r="H210" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I210" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="J210" s="90"/>
+      <c r="K210" s="89"/>
+    </row>
+    <row r="211" spans="2:11">
+      <c r="B211" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C211" s="65">
+        <v>132</v>
+      </c>
+      <c r="D211" s="55"/>
+      <c r="E211" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F211" s="65">
+        <v>155</v>
+      </c>
+      <c r="G211" s="58"/>
+      <c r="H211" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I211" s="90">
+        <v>100</v>
+      </c>
+      <c r="J211" s="90"/>
+      <c r="K211" s="89"/>
+    </row>
+    <row r="212" spans="2:11">
+      <c r="B212" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C212" s="65">
+        <v>41</v>
+      </c>
+      <c r="D212" s="55"/>
+      <c r="E212" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F212" s="65">
+        <v>160</v>
+      </c>
+      <c r="G212" s="58"/>
+      <c r="H212" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="I212" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="J212" s="90"/>
+      <c r="K212" s="89"/>
+    </row>
+    <row r="213" spans="2:11">
+      <c r="B213" s="55"/>
+      <c r="C213" s="57"/>
+      <c r="D213" s="55"/>
+      <c r="E213" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F213" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G213" s="58"/>
+      <c r="H213" s="66"/>
+      <c r="I213" s="91"/>
+      <c r="J213" s="92"/>
+      <c r="K213" s="89"/>
+    </row>
+    <row r="214" spans="2:11">
+      <c r="B214" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C214" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D214" s="55"/>
+      <c r="E214" s="64"/>
+      <c r="F214" s="58"/>
+      <c r="G214" s="58"/>
+      <c r="H214" s="58"/>
+      <c r="I214" s="58"/>
+      <c r="J214" s="89"/>
+      <c r="K214" s="89"/>
+    </row>
+    <row r="215" spans="2:11">
+      <c r="B215" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C215" s="65">
+        <v>76.62</v>
+      </c>
+      <c r="D215" s="55"/>
+      <c r="E215" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F215" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G215" s="58"/>
+      <c r="H215" s="58"/>
+      <c r="I215" s="58"/>
+      <c r="J215" s="89"/>
+      <c r="K215" s="89"/>
+    </row>
+    <row r="216" spans="2:11">
+      <c r="B216" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C216" s="65">
+        <v>62.58</v>
+      </c>
+      <c r="D216" s="55"/>
+      <c r="E216" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F216" s="65">
+        <v>170</v>
+      </c>
+      <c r="G216" s="58"/>
+      <c r="H216" s="58"/>
+      <c r="I216" s="58"/>
+      <c r="J216" s="89"/>
+      <c r="K216" s="89"/>
+    </row>
+    <row r="217" spans="2:11">
+      <c r="B217" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C217" s="65">
+        <v>48.47</v>
+      </c>
+      <c r="D217" s="55"/>
+      <c r="E217" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F217" s="65">
+        <v>90</v>
+      </c>
+      <c r="G217" s="58"/>
+      <c r="H217" s="58"/>
+      <c r="I217" s="58"/>
+      <c r="J217" s="89"/>
+      <c r="K217" s="89"/>
+    </row>
+    <row r="218" spans="2:11">
+      <c r="B218" s="65"/>
+      <c r="C218" s="65"/>
+      <c r="D218" s="55"/>
+      <c r="E218" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F218" s="65">
+        <v>280</v>
+      </c>
+      <c r="G218" s="58"/>
+      <c r="H218" s="58"/>
+      <c r="I218" s="58"/>
+      <c r="J218" s="89"/>
+      <c r="K218" s="89"/>
+    </row>
+    <row r="219" spans="2:11">
+      <c r="B219" s="55"/>
+      <c r="C219" s="55"/>
+      <c r="D219" s="55"/>
+      <c r="E219" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F219" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G219" s="58"/>
+      <c r="H219" s="58"/>
+      <c r="I219" s="58"/>
+      <c r="J219" s="89"/>
+      <c r="K219" s="89"/>
+    </row>
+    <row r="220" spans="2:11">
+      <c r="B220" s="55"/>
+      <c r="C220" s="55"/>
+      <c r="D220" s="55"/>
+      <c r="E220" s="55"/>
+      <c r="F220" s="55"/>
+      <c r="G220" s="58"/>
+      <c r="H220" s="58"/>
+      <c r="I220" s="58"/>
+      <c r="J220" s="89"/>
+      <c r="K220" s="89"/>
+    </row>
+    <row r="221" spans="2:11">
+      <c r="B221" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C221" s="55"/>
+      <c r="D221" s="55"/>
+      <c r="E221" s="55"/>
+      <c r="F221" s="55"/>
+      <c r="G221" s="58"/>
+      <c r="H221" s="58"/>
+      <c r="I221" s="58"/>
+      <c r="J221" s="89"/>
+      <c r="K221" s="89"/>
+    </row>
+    <row r="222" spans="2:11">
+      <c r="B222" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222" s="55"/>
+      <c r="D222" s="55"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="55"/>
+      <c r="G222" s="58"/>
+      <c r="H222" s="58"/>
+      <c r="I222" s="58"/>
+      <c r="J222" s="89"/>
+      <c r="K222" s="89"/>
+    </row>
+    <row r="223" spans="2:11">
+      <c r="B223" s="55"/>
+      <c r="C223" s="55"/>
+      <c r="D223" s="55"/>
+      <c r="E223" s="55"/>
+      <c r="F223" s="55"/>
+      <c r="G223" s="58"/>
+      <c r="H223" s="58"/>
+      <c r="I223" s="58"/>
+      <c r="J223" s="89"/>
+      <c r="K223" s="89"/>
+    </row>
+    <row r="224" spans="2:11">
+      <c r="B224" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C224" s="23"/>
+      <c r="D224" s="50"/>
+      <c r="E224" s="51"/>
+      <c r="F224" s="50"/>
+      <c r="G224" s="47"/>
+      <c r="H224" s="47"/>
+      <c r="I224" s="47"/>
+      <c r="J224" s="39"/>
+      <c r="K224" s="39"/>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="8"/>
+      <c r="C225" s="32"/>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D226" s="68"/>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C227" s="69"/>
+      <c r="D227" s="70"/>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="8"/>
+      <c r="C228" s="32"/>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C229" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D229" s="71"/>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C230" s="71"/>
+      <c r="D230" s="71"/>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="B231" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C231" s="71"/>
+      <c r="D231" s="71"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="8"/>
+      <c r="C232" s="32"/>
+    </row>
+    <row r="234" ht="17.25" customHeight="1" spans="2:11">
+      <c r="B234" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C234" s="73"/>
+      <c r="D234" s="73"/>
+      <c r="E234" s="73"/>
+      <c r="F234" s="73"/>
+      <c r="G234" s="73"/>
+      <c r="H234" s="73"/>
+      <c r="I234" s="73"/>
+      <c r="J234" s="73"/>
+      <c r="K234" s="73"/>
+    </row>
+    <row r="235" spans="2:8">
+      <c r="B235" s="40"/>
+      <c r="C235" s="74">
+        <v>2017</v>
+      </c>
+      <c r="D235" s="74">
+        <v>2018</v>
+      </c>
+      <c r="F235" s="40"/>
+      <c r="G235" s="74">
+        <v>2017</v>
+      </c>
+      <c r="H235" s="74">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8">
+      <c r="B236" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C236" s="75">
+        <v>1.1307</v>
+      </c>
+      <c r="D236" s="75">
+        <v>0.0603</v>
+      </c>
+      <c r="F236" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G236" s="75">
+        <v>0.8249</v>
+      </c>
+      <c r="H236" s="75">
+        <v>0.3792</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8">
+      <c r="B237" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C237" s="75">
+        <v>1.3788</v>
+      </c>
+      <c r="D237" s="75">
+        <v>-0.0279</v>
+      </c>
+      <c r="F237" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G237" s="75">
+        <v>0.9526</v>
+      </c>
+      <c r="H237" s="75">
+        <v>-0.0065</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8">
+      <c r="B238" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C238" s="75">
+        <v>0.6788</v>
+      </c>
+      <c r="D238" s="75">
+        <v>0.1245</v>
+      </c>
+      <c r="F238" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G238" s="75">
+        <v>0.5548</v>
+      </c>
+      <c r="H238" s="75">
+        <v>0.6286</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="8"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="8"/>
+    </row>
+    <row r="242" spans="2:11">
+      <c r="B242" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C242" s="77"/>
+      <c r="D242" s="77"/>
+      <c r="E242" s="78"/>
+      <c r="F242" s="77"/>
+      <c r="G242" s="77"/>
+      <c r="H242" s="77"/>
+      <c r="I242" s="77"/>
+      <c r="J242" s="93"/>
+      <c r="K242" s="93"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="8"/>
+    </row>
+    <row r="244" spans="2:9">
+      <c r="B244" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C244" s="79"/>
+      <c r="E244" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F244" s="79"/>
+      <c r="H244" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I244" s="79"/>
+    </row>
+    <row r="245" spans="2:9">
+      <c r="B245" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C245" s="79">
+        <v>80.3</v>
+      </c>
+      <c r="E245" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F245" s="80">
+        <v>35.07</v>
+      </c>
+      <c r="H245" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I245" s="80">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="B246" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C246" s="79">
+        <v>16.4</v>
+      </c>
+      <c r="E246" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F246" s="80">
+        <v>4.3</v>
+      </c>
+      <c r="H246" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I246" s="80">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9">
+      <c r="B247" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C247" s="81">
+        <v>0.0599</v>
+      </c>
+      <c r="E247" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F247" s="82">
+        <v>0.029</v>
+      </c>
+      <c r="H247" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I247" s="94">
+        <v>0.0407</v>
+      </c>
+    </row>
+    <row r="248" s="15" customFormat="1" spans="1:9">
+      <c r="A248" s="83"/>
+      <c r="B248" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C248" s="85">
+        <v>0.1635</v>
+      </c>
+      <c r="D248" s="86"/>
+      <c r="E248" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F248" s="87">
+        <v>-0.0433</v>
+      </c>
+      <c r="G248" s="83"/>
+      <c r="H248" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I248" s="87">
+        <v>0.3916</v>
+      </c>
+    </row>
+    <row r="249" s="15" customFormat="1" spans="1:9">
+      <c r="A249" s="83"/>
+      <c r="B249" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C249" s="85">
+        <v>0.217</v>
+      </c>
+      <c r="D249" s="86"/>
+      <c r="E249" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="F249" s="87">
+        <v>0.4738</v>
+      </c>
+      <c r="G249" s="83"/>
+      <c r="H249" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="I249" s="87">
+        <v>0.4586</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="9"/>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="9"/>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="9"/>
+    </row>
+    <row r="253" spans="2:6">
+      <c r="B253" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C253" s="8"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="88"/>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="10"/>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="9"/>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="9"/>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="9"/>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="9"/>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="10"/>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="9"/>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="9"/>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="9"/>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="9"/>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="10"/>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="95"/>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="9"/>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="9"/>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="9"/>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="9"/>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="10"/>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="10"/>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B154:K154"/>
+    <mergeCell ref="B155:K155"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="I211:J211"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="F126:L127"/>
+    <mergeCell ref="B142:K147"/>
+    <mergeCell ref="B151:K153"/>
+    <mergeCell ref="C229:D231"/>
+    <mergeCell ref="C226:D227"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
@@ -3295,7 +5084,7 @@
   <sheetData>
     <row r="1" ht="27.75" customHeight="1" spans="2:9">
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -3360,7 +5149,7 @@
   <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3371,10 +5160,10 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3391,10 +5180,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3411,10 +5200,10 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
